--- a/spp3.xlsx
+++ b/spp3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Relu" sheetId="2" r:id="rId1"/>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="O2" sqref="O2:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/spp3.xlsx
+++ b/spp3.xlsx
@@ -782,7 +782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -799,6 +799,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1149,10 +1152,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O29"/>
+      <selection activeCell="R1" sqref="R$1:R$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1168,6 +1171,8 @@
     <col min="11" max="11" width="12.8888888888889" style="2"/>
     <col min="12" max="13" width="10" style="2"/>
     <col min="14" max="14" width="12.8888888888889" style="2"/>
+    <col min="16" max="16" width="9.66666666666667"/>
+    <col min="18" max="18" width="14.1111111111111"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1214,7 +1219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1261,8 +1266,20 @@
         <f>AVERAGE(C2,F2,I2,L2)</f>
         <v>1138</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <f>-SUM(O2)</f>
+        <v>-1138</v>
+      </c>
+      <c r="Q2">
+        <f>SUM(B2,P2)</f>
+        <v>24</v>
+      </c>
+      <c r="R2" s="6">
+        <f>Q2/B2</f>
+        <v>0.0206540447504303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1309,8 +1326,20 @@
         <f t="shared" ref="O3:O29" si="0">AVERAGE(C3,F3,I3,L3)</f>
         <v>992.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <f t="shared" ref="P3:P29" si="1">-SUM(O3)</f>
+        <v>-992.25</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q29" si="2">SUM(B3,P3)</f>
+        <v>28.75</v>
+      </c>
+      <c r="R3" s="6">
+        <f t="shared" ref="R3:R29" si="3">Q3/B3</f>
+        <v>0.0281586679725759</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1357,8 +1386,20 @@
         <f t="shared" si="0"/>
         <v>1034.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>-1034.25</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>18.75</v>
+      </c>
+      <c r="R4" s="6">
+        <f t="shared" si="3"/>
+        <v>0.0178062678062678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1405,8 +1446,20 @@
         <f t="shared" si="0"/>
         <v>993</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>-993</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="R5" s="6">
+        <f t="shared" si="3"/>
+        <v>0.0349854227405248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1453,8 +1506,20 @@
         <f t="shared" si="0"/>
         <v>1063.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>-1063.25</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>3.75</v>
+      </c>
+      <c r="R6" s="6">
+        <f t="shared" si="3"/>
+        <v>0.003514526710403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1501,8 +1566,20 @@
         <f t="shared" si="0"/>
         <v>1243</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>-1243</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="R7" s="6">
+        <f t="shared" si="3"/>
+        <v>0.0633006782215524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1626,20 @@
         <f t="shared" si="0"/>
         <v>1342.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>-1342.5</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>54.5</v>
+      </c>
+      <c r="R8" s="6">
+        <f t="shared" si="3"/>
+        <v>0.0390121689334288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1597,8 +1686,20 @@
         <f t="shared" si="0"/>
         <v>1278.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>-1278.5</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>78.5</v>
+      </c>
+      <c r="R9" s="6">
+        <f t="shared" si="3"/>
+        <v>0.0578481945467944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1645,8 +1746,20 @@
         <f t="shared" si="0"/>
         <v>1264.75</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>-1264.75</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>55.25</v>
+      </c>
+      <c r="R10" s="6">
+        <f t="shared" si="3"/>
+        <v>0.0418560606060606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1693,8 +1806,20 @@
         <f t="shared" si="0"/>
         <v>1395.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>-1395.5</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>21.5</v>
+      </c>
+      <c r="R11" s="6">
+        <f t="shared" si="3"/>
+        <v>0.0151729004940014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1741,8 +1866,20 @@
         <f t="shared" si="0"/>
         <v>1784</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>-1784</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="R12" s="6">
+        <f t="shared" si="3"/>
+        <v>0.0176211453744493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1789,8 +1926,20 @@
         <f t="shared" si="0"/>
         <v>1850</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>-1850</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1837,8 +1986,20 @@
         <f t="shared" si="0"/>
         <v>1721.75</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>-1721.75</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>9.25</v>
+      </c>
+      <c r="R14" s="6">
+        <f t="shared" si="3"/>
+        <v>0.00534373194685153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1885,8 +2046,20 @@
         <f t="shared" si="0"/>
         <v>1737</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>-1737</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="R15" s="6">
+        <f t="shared" si="3"/>
+        <v>0.0263452914798206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1933,8 +2106,20 @@
         <f t="shared" si="0"/>
         <v>1905.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>-1905.75</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>35.25</v>
+      </c>
+      <c r="R16" s="6">
+        <f t="shared" si="3"/>
+        <v>0.018160741885626</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1981,8 +2166,20 @@
         <f t="shared" si="0"/>
         <v>1368.75</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>-1368.75</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>-13.75</v>
+      </c>
+      <c r="R17" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.0101476014760148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -2029,8 +2226,20 @@
         <f t="shared" si="0"/>
         <v>1507.25</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>-1507.25</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>32.75</v>
+      </c>
+      <c r="R18" s="6">
+        <f t="shared" si="3"/>
+        <v>0.0212662337662338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -2077,8 +2286,20 @@
         <f t="shared" si="0"/>
         <v>1338.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>-1338.5</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="R19" s="6">
+        <f t="shared" si="3"/>
+        <v>0.00704747774480712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2346,20 @@
         <f t="shared" si="0"/>
         <v>1340.75</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>-1340.75</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>16.25</v>
+      </c>
+      <c r="R20" s="6">
+        <f t="shared" si="3"/>
+        <v>0.0119749447310243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -2173,8 +2406,20 @@
         <f t="shared" si="0"/>
         <v>1330.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>-1330.25</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>5.75</v>
+      </c>
+      <c r="R21" s="6">
+        <f t="shared" si="3"/>
+        <v>0.00430389221556886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -2221,8 +2466,20 @@
         <f t="shared" si="0"/>
         <v>1863.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>-1863.25</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>57.75</v>
+      </c>
+      <c r="R22" s="6">
+        <f t="shared" si="3"/>
+        <v>0.0300624674648621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -2269,8 +2526,20 @@
         <f t="shared" si="0"/>
         <v>1840.75</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>-1840.75</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>3.25</v>
+      </c>
+      <c r="R23" s="6">
+        <f t="shared" si="3"/>
+        <v>0.00176247288503254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -2317,8 +2586,20 @@
         <f t="shared" si="0"/>
         <v>2022.25</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>-2022.25</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>-36.25</v>
+      </c>
+      <c r="R24" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.0182527693856999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -2365,8 +2646,20 @@
         <f t="shared" si="0"/>
         <v>2099.75</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>-2099.75</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>35.25</v>
+      </c>
+      <c r="R25" s="6">
+        <f t="shared" si="3"/>
+        <v>0.0165105386416862</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -2413,8 +2706,20 @@
         <f t="shared" si="0"/>
         <v>2393.75</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>-2393.75</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>56.25</v>
+      </c>
+      <c r="R26" s="6">
+        <f t="shared" si="3"/>
+        <v>0.0229591836734694</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -2461,8 +2766,20 @@
         <f t="shared" si="0"/>
         <v>2323</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>-2323</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="R27" s="6">
+        <f t="shared" si="3"/>
+        <v>0.0119098256061251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -2509,8 +2826,20 @@
         <f t="shared" si="0"/>
         <v>3155</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>-3155</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="R28" s="6">
+        <f t="shared" si="3"/>
+        <v>0.0330983757278578</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -2556,6 +2885,18 @@
       <c r="O29">
         <f t="shared" si="0"/>
         <v>3045.25</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>-3045.25</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="2"/>
+        <v>183.75</v>
+      </c>
+      <c r="R29" s="6">
+        <f t="shared" si="3"/>
+        <v>0.0569061628987303</v>
       </c>
     </row>
     <row r="30" spans="5:14">
